--- a/Data karyawan.xlsx
+++ b/Data karyawan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>No</t>
   </si>
@@ -53,31 +53,97 @@
     <t>Citizenship</t>
   </si>
   <si>
+    <t>MB-04</t>
+  </si>
+  <si>
+    <t>JIGS</t>
+  </si>
+  <si>
+    <t>BENGKULU</t>
+  </si>
+  <si>
+    <t>KABUPATEN BENGKULU SELATAN</t>
+  </si>
+  <si>
+    <t>2001-02-13</t>
+  </si>
+  <si>
+    <t>DEPT</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Laki-laki</t>
+  </si>
+  <si>
+    <t>WNI</t>
+  </si>
+  <si>
     <t>MB-01</t>
   </si>
   <si>
-    <t>Hans</t>
-  </si>
-  <si>
-    <t>KALIMANTAN BARAT</t>
-  </si>
-  <si>
-    <t>WNA</t>
+    <t>HANS</t>
+  </si>
+  <si>
+    <t>BANTEN</t>
+  </si>
+  <si>
+    <t>KOTA TANGERANG</t>
+  </si>
+  <si>
+    <t>2001-12-12</t>
+  </si>
+  <si>
+    <t>DIV</t>
+  </si>
+  <si>
+    <t>MB-02</t>
+  </si>
+  <si>
+    <t>FIsda</t>
+  </si>
+  <si>
+    <t>KALIMANTAN TENGAH</t>
+  </si>
+  <si>
+    <t>KABUPATEN BARITO SELATAN</t>
+  </si>
+  <si>
+    <t>2001-09-13</t>
+  </si>
+  <si>
+    <t>DIR</t>
+  </si>
+  <si>
+    <t>MB-03</t>
+  </si>
+  <si>
+    <t>Huns</t>
+  </si>
+  <si>
+    <t>KALIMANTAN SELATAN</t>
+  </si>
+  <si>
+    <t>KABUPATEN BALANGAN</t>
   </si>
   <si>
     <t>2002-12-12</t>
   </si>
   <si>
-    <t>DIR</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Laki-laki</t>
-  </si>
-  <si>
-    <t>WNI</t>
+    <t>SEC</t>
+  </si>
+  <si>
+    <t>MB-05</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>2001-02-02</t>
+  </si>
+  <si>
+    <t>UNIT</t>
   </si>
 </sst>
 </file>
@@ -417,7 +483,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +560,142 @@
         <v>19</v>
       </c>
       <c r="L2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Data karyawan.xlsx
+++ b/Data karyawan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>No</t>
   </si>
@@ -53,97 +53,85 @@
     <t>Citizenship</t>
   </si>
   <si>
-    <t>MB-04</t>
-  </si>
-  <si>
-    <t>JIGS</t>
-  </si>
-  <si>
-    <t>BENGKULU</t>
-  </si>
-  <si>
-    <t>KABUPATEN BENGKULU SELATAN</t>
-  </si>
-  <si>
-    <t>2001-02-13</t>
+    <t>MB-03</t>
+  </si>
+  <si>
+    <t>Hilda</t>
+  </si>
+  <si>
+    <t>Steel Rodriquez</t>
+  </si>
+  <si>
+    <t>Mejia</t>
+  </si>
+  <si>
+    <t>SUMATERA SELATAN</t>
+  </si>
+  <si>
+    <t>KABUPATEN BANYU ASIN</t>
+  </si>
+  <si>
+    <t>1990-11-08</t>
+  </si>
+  <si>
+    <t>UNIT</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Perempuan</t>
+  </si>
+  <si>
+    <t>WNI</t>
+  </si>
+  <si>
+    <t>MB-01</t>
+  </si>
+  <si>
+    <t>Anastasia</t>
+  </si>
+  <si>
+    <t>Marsden Good</t>
+  </si>
+  <si>
+    <t>Bowman</t>
+  </si>
+  <si>
+    <t>WNA</t>
+  </si>
+  <si>
+    <t>2019-03-27</t>
+  </si>
+  <si>
+    <t>DIR</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Expat</t>
+  </si>
+  <si>
+    <t>MB-02</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Kimberley Mathis</t>
+  </si>
+  <si>
+    <t>Hinton</t>
+  </si>
+  <si>
+    <t>1980-12-15</t>
   </si>
   <si>
     <t>DEPT</t>
   </si>
   <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Laki-laki</t>
-  </si>
-  <si>
-    <t>WNI</t>
-  </si>
-  <si>
-    <t>MB-01</t>
-  </si>
-  <si>
-    <t>HANS</t>
-  </si>
-  <si>
-    <t>BANTEN</t>
-  </si>
-  <si>
-    <t>KOTA TANGERANG</t>
-  </si>
-  <si>
-    <t>2001-12-12</t>
-  </si>
-  <si>
-    <t>DIV</t>
-  </si>
-  <si>
-    <t>MB-02</t>
-  </si>
-  <si>
-    <t>FIsda</t>
-  </si>
-  <si>
-    <t>KALIMANTAN TENGAH</t>
-  </si>
-  <si>
-    <t>KABUPATEN BARITO SELATAN</t>
-  </si>
-  <si>
-    <t>2001-09-13</t>
-  </si>
-  <si>
-    <t>DIR</t>
-  </si>
-  <si>
-    <t>MB-03</t>
-  </si>
-  <si>
-    <t>Huns</t>
-  </si>
-  <si>
-    <t>KALIMANTAN SELATAN</t>
-  </si>
-  <si>
-    <t>KABUPATEN BALANGAN</t>
-  </si>
-  <si>
-    <t>2002-12-12</t>
-  </si>
-  <si>
-    <t>SEC</t>
-  </si>
-  <si>
-    <t>MB-05</t>
-  </si>
-  <si>
-    <t>Julio</t>
-  </si>
-  <si>
-    <t>2001-02-02</t>
-  </si>
-  <si>
-    <t>UNIT</t>
+    <t>Greece</t>
   </si>
 </sst>
 </file>
@@ -483,7 +471,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,28 +527,32 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2"/>
-      <c r="E2"/>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -568,33 +560,37 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -602,101 +598,37 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
         <v>31</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
